--- a/fourth_pass/welfare_results/3282/integrated_calc_tseries.xlsx
+++ b/fourth_pass/welfare_results/3282/integrated_calc_tseries.xlsx
@@ -49433,7 +49433,7 @@
         <v>1950</v>
       </c>
       <c r="D1400" t="n">
-        <v>10000000000000000000</v>
+        <v>10402219140083218432</v>
       </c>
       <c r="E1400" t="n">
         <v>0.001</v>
@@ -49448,13 +49448,13 @@
         <v>10000</v>
       </c>
       <c r="I1400" t="n">
-        <v>-420000000000000000</v>
+        <v>-436893203883495168</v>
       </c>
       <c r="J1400" t="n">
-        <v>-171009771986971</v>
+        <v>-177888112330413</v>
       </c>
       <c r="K1400" t="n">
-        <v> 99999999999999991611392</v>
+        <v>104022191400832190119936</v>
       </c>
     </row>
     <row r="1401">
@@ -49468,7 +49468,7 @@
         <v>1951</v>
       </c>
       <c r="D1401" t="n">
-        <v>10000000000000000000</v>
+        <v>10388349514563106816</v>
       </c>
       <c r="E1401" t="n">
         <v>0.001</v>
@@ -49483,13 +49483,13 @@
         <v>10000</v>
       </c>
       <c r="I1401" t="n">
-        <v>-420000000000000000</v>
+        <v>-436310679611650560</v>
       </c>
       <c r="J1401" t="n">
-        <v>-171009771986971</v>
+        <v>-177650928180639</v>
       </c>
       <c r="K1401" t="n">
-        <v> 99999999999999991611392</v>
+        <v>103883495145631064784896</v>
       </c>
     </row>
     <row r="1402">
@@ -49503,7 +49503,7 @@
         <v>1952</v>
       </c>
       <c r="D1402" t="n">
-        <v>10000000000000000000</v>
+        <v>10374479889042995200</v>
       </c>
       <c r="E1402" t="n">
         <v>0.001</v>
@@ -49518,13 +49518,13 @@
         <v>10000</v>
       </c>
       <c r="I1402" t="n">
-        <v>-420000000000000000</v>
+        <v>-435728155339805824</v>
       </c>
       <c r="J1402" t="n">
-        <v>-171009771986971</v>
+        <v>-177413744030866</v>
       </c>
       <c r="K1402" t="n">
-        <v> 99999999999999991611392</v>
+        <v>103744798890429956227072</v>
       </c>
     </row>
     <row r="1403">
@@ -49538,7 +49538,7 @@
         <v>1953</v>
       </c>
       <c r="D1403" t="n">
-        <v>10000000000000000000</v>
+        <v>10360610263522885632</v>
       </c>
       <c r="E1403" t="n">
         <v>0.001</v>
@@ -49553,13 +49553,13 @@
         <v>10000</v>
       </c>
       <c r="I1403" t="n">
-        <v>-420000000000000000</v>
+        <v>-435145631067961216</v>
       </c>
       <c r="J1403" t="n">
-        <v>-171009771986971</v>
+        <v>-177176559881092</v>
       </c>
       <c r="K1403" t="n">
-        <v> 99999999999999991611392</v>
+        <v>103606102635228864446464</v>
       </c>
     </row>
     <row r="1404">
@@ -49573,7 +49573,7 @@
         <v>1954</v>
       </c>
       <c r="D1404" t="n">
-        <v>10000000000000000000</v>
+        <v>10346740638002774016</v>
       </c>
       <c r="E1404" t="n">
         <v>0.001</v>
@@ -49588,13 +49588,13 @@
         <v>10000</v>
       </c>
       <c r="I1404" t="n">
-        <v>-420000000000000000</v>
+        <v>-434563106796116480</v>
       </c>
       <c r="J1404" t="n">
-        <v>-171009771986971</v>
+        <v>-176939375731318</v>
       </c>
       <c r="K1404" t="n">
-        <v> 99999999999999991611392</v>
+        <v>103467406380027739111424</v>
       </c>
     </row>
     <row r="1405">
@@ -49608,7 +49608,7 @@
         <v>1955</v>
       </c>
       <c r="D1405" t="n">
-        <v>10000000000000000000</v>
+        <v>10332871012482662400</v>
       </c>
       <c r="E1405" t="n">
         <v>0.001</v>
@@ -49623,13 +49623,13 @@
         <v>10000</v>
       </c>
       <c r="I1405" t="n">
-        <v>-420000000000000000</v>
+        <v>-433980582524271808</v>
       </c>
       <c r="J1405" t="n">
-        <v>-171009771986971</v>
+        <v>-176702191581544</v>
       </c>
       <c r="K1405" t="n">
-        <v> 99999999999999991611392</v>
+        <v>103328710124826630553600</v>
       </c>
     </row>
     <row r="1406">
@@ -49643,7 +49643,7 @@
         <v>1956</v>
       </c>
       <c r="D1406" t="n">
-        <v>10000000000000000000</v>
+        <v>10319001386962552832</v>
       </c>
       <c r="E1406" t="n">
         <v>0.001</v>
@@ -49658,13 +49658,13 @@
         <v>10000</v>
       </c>
       <c r="I1406" t="n">
-        <v>-420000000000000000</v>
+        <v>-433398058252427264</v>
       </c>
       <c r="J1406" t="n">
-        <v>-171009771986971</v>
+        <v>-176465007431770</v>
       </c>
       <c r="K1406" t="n">
-        <v> 99999999999999991611392</v>
+        <v>103190013869625521995776</v>
       </c>
     </row>
     <row r="1407">
@@ -49678,7 +49678,7 @@
         <v>1957</v>
       </c>
       <c r="D1407" t="n">
-        <v>10000000000000000000</v>
+        <v>10305131761442441216</v>
       </c>
       <c r="E1407" t="n">
         <v>0.001</v>
@@ -49693,13 +49693,13 @@
         <v>10000</v>
       </c>
       <c r="I1407" t="n">
-        <v>-420000000000000000</v>
+        <v>-432815533980582592</v>
       </c>
       <c r="J1407" t="n">
-        <v>-171009771986971</v>
+        <v>-176227823281996</v>
       </c>
       <c r="K1407" t="n">
-        <v> 99999999999999991611392</v>
+        <v>103051317614424413437952</v>
       </c>
     </row>
     <row r="1408">
@@ -49713,7 +49713,7 @@
         <v>1958</v>
       </c>
       <c r="D1408" t="n">
-        <v>10000000000000000000</v>
+        <v>10291262135922329600</v>
       </c>
       <c r="E1408" t="n">
         <v>0.001</v>
@@ -49728,13 +49728,13 @@
         <v>10000</v>
       </c>
       <c r="I1408" t="n">
-        <v>-420000000000000000</v>
+        <v>-432233009708737856</v>
       </c>
       <c r="J1408" t="n">
-        <v>-171009771986971</v>
+        <v>-175990639132222</v>
       </c>
       <c r="K1408" t="n">
-        <v> 99999999999999991611392</v>
+        <v>102912621359223288102912</v>
       </c>
     </row>
     <row r="1409">
@@ -49748,7 +49748,7 @@
         <v>1959</v>
       </c>
       <c r="D1409" t="n">
-        <v>10000000000000000000</v>
+        <v>10277392510402217984</v>
       </c>
       <c r="E1409" t="n">
         <v>0.001</v>
@@ -49763,13 +49763,13 @@
         <v>10000</v>
       </c>
       <c r="I1409" t="n">
-        <v>-420000000000000000</v>
+        <v>-431650485436893184</v>
       </c>
       <c r="J1409" t="n">
-        <v>-171009771986971</v>
+        <v>-175753454982448</v>
       </c>
       <c r="K1409" t="n">
-        <v> 99999999999999991611392</v>
+        <v>102773925104022179545088</v>
       </c>
     </row>
     <row r="1410">
@@ -49783,7 +49783,7 @@
         <v>1960</v>
       </c>
       <c r="D1410" t="n">
-        <v>10000000000000000000</v>
+        <v>10263522884882108416</v>
       </c>
       <c r="E1410" t="n">
         <v>0.001</v>
@@ -49798,13 +49798,13 @@
         <v>10000</v>
       </c>
       <c r="I1410" t="n">
-        <v>-420000000000000000</v>
+        <v>-431067961165048512</v>
       </c>
       <c r="J1410" t="n">
-        <v>-171009771986971</v>
+        <v>-175516270832674</v>
       </c>
       <c r="K1410" t="n">
-        <v> 99999999999999991611392</v>
+        <v>102635228848821087764480</v>
       </c>
     </row>
     <row r="1411">
@@ -49818,7 +49818,7 @@
         <v>1961</v>
       </c>
       <c r="D1411" t="n">
-        <v>10000000000000000000</v>
+        <v>10249653259361998848</v>
       </c>
       <c r="E1411" t="n">
         <v>0.001</v>
@@ -49833,13 +49833,13 @@
         <v>10000</v>
       </c>
       <c r="I1411" t="n">
-        <v>-420000000000000000</v>
+        <v>-430485436893203968</v>
       </c>
       <c r="J1411" t="n">
-        <v>-171009771986971</v>
+        <v>-175279086682901</v>
       </c>
       <c r="K1411" t="n">
-        <v> 99999999999999991611392</v>
+        <v>102496532593619995983872</v>
       </c>
     </row>
     <row r="1412">
@@ -49853,7 +49853,7 @@
         <v>1962</v>
       </c>
       <c r="D1412" t="n">
-        <v>10000000000000000000</v>
+        <v>10235783633841887232</v>
       </c>
       <c r="E1412" t="n">
         <v>0.001</v>
@@ -49868,13 +49868,13 @@
         <v>10000</v>
       </c>
       <c r="I1412" t="n">
-        <v>-420000000000000000</v>
+        <v>-429902912621359296</v>
       </c>
       <c r="J1412" t="n">
-        <v>-171009771986971</v>
+        <v>-175041902533127</v>
       </c>
       <c r="K1412" t="n">
-        <v> 99999999999999991611392</v>
+        <v>102357836338418870648832</v>
       </c>
     </row>
     <row r="1413">
@@ -49888,7 +49888,7 @@
         <v>1963</v>
       </c>
       <c r="D1413" t="n">
-        <v>10000000000000000000</v>
+        <v>10221914008321773568</v>
       </c>
       <c r="E1413" t="n">
         <v>0.001</v>
@@ -49903,13 +49903,13 @@
         <v>10000</v>
       </c>
       <c r="I1413" t="n">
-        <v>-420000000000000000</v>
+        <v>-429320388349514496</v>
       </c>
       <c r="J1413" t="n">
-        <v>-171009771986971</v>
+        <v>-174804718383353</v>
       </c>
       <c r="K1413" t="n">
-        <v> 99999999999999991611392</v>
+        <v>102219140083217728536576</v>
       </c>
     </row>
     <row r="1414">
@@ -49923,7 +49923,7 @@
         <v>1964</v>
       </c>
       <c r="D1414" t="n">
-        <v>10000000000000000000</v>
+        <v>10208044382801664000</v>
       </c>
       <c r="E1414" t="n">
         <v>0.001</v>
@@ -49938,13 +49938,13 @@
         <v>10000</v>
       </c>
       <c r="I1414" t="n">
-        <v>-420000000000000000</v>
+        <v>-428737864077669888</v>
       </c>
       <c r="J1414" t="n">
-        <v>-171009771986971</v>
+        <v>-174567534233579</v>
       </c>
       <c r="K1414" t="n">
-        <v> 99999999999999991611392</v>
+        <v>102080443828016636755968</v>
       </c>
     </row>
     <row r="1415">
@@ -49958,7 +49958,7 @@
         <v>1965</v>
       </c>
       <c r="D1415" t="n">
-        <v>10000000000000000000</v>
+        <v>10194174757281554432</v>
       </c>
       <c r="E1415" t="n">
         <v>0.001</v>
@@ -49973,13 +49973,13 @@
         <v>10000</v>
       </c>
       <c r="I1415" t="n">
-        <v>-420000000000000000</v>
+        <v>-428155339805825280</v>
       </c>
       <c r="J1415" t="n">
-        <v>-171009771986971</v>
+        <v>-174330350083805</v>
       </c>
       <c r="K1415" t="n">
-        <v> 99999999999999991611392</v>
+        <v>101941747572815544975360</v>
       </c>
     </row>
     <row r="1416">
@@ -49993,7 +49993,7 @@
         <v>1966</v>
       </c>
       <c r="D1416" t="n">
-        <v>10000000000000000000</v>
+        <v>10180305131761442816</v>
       </c>
       <c r="E1416" t="n">
         <v>0.001</v>
@@ -50008,13 +50008,13 @@
         <v>10000</v>
       </c>
       <c r="I1416" t="n">
-        <v>-420000000000000000</v>
+        <v>-427572815533980672</v>
       </c>
       <c r="J1416" t="n">
-        <v>-171009771986971</v>
+        <v>-174093165934031</v>
       </c>
       <c r="K1416" t="n">
-        <v> 99999999999999991611392</v>
+        <v>101803051317614436417536</v>
       </c>
     </row>
     <row r="1417">
@@ -50028,7 +50028,7 @@
         <v>1967</v>
       </c>
       <c r="D1417" t="n">
-        <v>10000000000000000000</v>
+        <v>10166435506241331200</v>
       </c>
       <c r="E1417" t="n">
         <v>0.001</v>
@@ -50043,13 +50043,13 @@
         <v>10000</v>
       </c>
       <c r="I1417" t="n">
-        <v>-420000000000000000</v>
+        <v>-426990291262135936</v>
       </c>
       <c r="J1417" t="n">
-        <v>-171009771986971</v>
+        <v>-173855981784257</v>
       </c>
       <c r="K1417" t="n">
-        <v> 99999999999999991611392</v>
+        <v>101664355062413311082496</v>
       </c>
     </row>
     <row r="1418">
@@ -50063,7 +50063,7 @@
         <v>1968</v>
       </c>
       <c r="D1418" t="n">
-        <v>10000000000000000000</v>
+        <v>10152565880721219584</v>
       </c>
       <c r="E1418" t="n">
         <v>0.001</v>
@@ -50078,13 +50078,13 @@
         <v>10000</v>
       </c>
       <c r="I1418" t="n">
-        <v>-420000000000000000</v>
+        <v>-426407766990291264</v>
       </c>
       <c r="J1418" t="n">
-        <v>-171009771986971</v>
+        <v>-173618797634483</v>
       </c>
       <c r="K1418" t="n">
-        <v> 99999999999999991611392</v>
+        <v>101525658807212202524672</v>
       </c>
     </row>
     <row r="1419">
@@ -50098,7 +50098,7 @@
         <v>1969</v>
       </c>
       <c r="D1419" t="n">
-        <v>10000000000000000000</v>
+        <v>10138696255201110016</v>
       </c>
       <c r="E1419" t="n">
         <v>0.001</v>
@@ -50113,13 +50113,13 @@
         <v>10000</v>
       </c>
       <c r="I1419" t="n">
-        <v>-420000000000000000</v>
+        <v>-425825242718446592</v>
       </c>
       <c r="J1419" t="n">
-        <v>-171009771986971</v>
+        <v>-173381613484710</v>
       </c>
       <c r="K1419" t="n">
-        <v> 99999999999999991611392</v>
+        <v>101386962552011093966848</v>
       </c>
     </row>
     <row r="1420">
@@ -50133,7 +50133,7 @@
         <v>1970</v>
       </c>
       <c r="D1420" t="n">
-        <v>10000000000000000000</v>
+        <v>10124826629680998400</v>
       </c>
       <c r="E1420" t="n">
         <v>0.001</v>
@@ -50148,13 +50148,13 @@
         <v>10000</v>
       </c>
       <c r="I1420" t="n">
-        <v>-420000000000000000</v>
+        <v>-425242718446601920</v>
       </c>
       <c r="J1420" t="n">
-        <v>-171009771986971</v>
+        <v>-173144429334936</v>
       </c>
       <c r="K1420" t="n">
-        <v> 99999999999999991611392</v>
+        <v>101248266296809985409024</v>
       </c>
     </row>
     <row r="1421">
@@ -50168,7 +50168,7 @@
         <v>1971</v>
       </c>
       <c r="D1421" t="n">
-        <v>10000000000000000000</v>
+        <v>10110957004160886784</v>
       </c>
       <c r="E1421" t="n">
         <v>0.001</v>
@@ -50183,13 +50183,13 @@
         <v>10000</v>
       </c>
       <c r="I1421" t="n">
-        <v>-420000000000000000</v>
+        <v>-424660194174757184</v>
       </c>
       <c r="J1421" t="n">
-        <v>-171009771986971</v>
+        <v>-172907245185162</v>
       </c>
       <c r="K1421" t="n">
-        <v> 99999999999999991611392</v>
+        <v>101109570041608860073984</v>
       </c>
     </row>
     <row r="1422">
@@ -50203,7 +50203,7 @@
         <v>1972</v>
       </c>
       <c r="D1422" t="n">
-        <v>10000000000000000000</v>
+        <v>10097087378640777216</v>
       </c>
       <c r="E1422" t="n">
         <v>0.001</v>
@@ -50218,13 +50218,13 @@
         <v>10000</v>
       </c>
       <c r="I1422" t="n">
-        <v>-420000000000000000</v>
+        <v>-424077669902912704</v>
       </c>
       <c r="J1422" t="n">
-        <v>-171009771986971</v>
+        <v>-172670061035388</v>
       </c>
       <c r="K1422" t="n">
-        <v> 99999999999999991611392</v>
+        <v>100970873786407768293376</v>
       </c>
     </row>
     <row r="1423">
@@ -50238,7 +50238,7 @@
         <v>1973</v>
       </c>
       <c r="D1423" t="n">
-        <v>10000000000000000000</v>
+        <v>10083217753120665600</v>
       </c>
       <c r="E1423" t="n">
         <v>0.001</v>
@@ -50253,13 +50253,13 @@
         <v>10000</v>
       </c>
       <c r="I1423" t="n">
-        <v>-420000000000000000</v>
+        <v>-423495145631067968</v>
       </c>
       <c r="J1423" t="n">
-        <v>-171009771986971</v>
+        <v>-172432876885614</v>
       </c>
       <c r="K1423" t="n">
-        <v> 99999999999999991611392</v>
+        <v>100832177531206659735552</v>
       </c>
     </row>
     <row r="1424">
@@ -50273,7 +50273,7 @@
         <v>1974</v>
       </c>
       <c r="D1424" t="n">
-        <v>10000000000000000000</v>
+        <v>10069348127600553984</v>
       </c>
       <c r="E1424" t="n">
         <v>0.001</v>
@@ -50288,13 +50288,13 @@
         <v>10000</v>
       </c>
       <c r="I1424" t="n">
-        <v>-420000000000000000</v>
+        <v>-422912621359223296</v>
       </c>
       <c r="J1424" t="n">
-        <v>-171009771986971</v>
+        <v>-172195692735840</v>
       </c>
       <c r="K1424" t="n">
-        <v> 99999999999999991611392</v>
+        <v>100693481276005534400512</v>
       </c>
     </row>
     <row r="1425">
@@ -50308,7 +50308,7 @@
         <v>1975</v>
       </c>
       <c r="D1425" t="n">
-        <v>10000000000000000000</v>
+        <v>10055478502080442368</v>
       </c>
       <c r="E1425" t="n">
         <v>0.001</v>
@@ -50323,13 +50323,13 @@
         <v>10000</v>
       </c>
       <c r="I1425" t="n">
-        <v>-420000000000000000</v>
+        <v>-422330097087378560</v>
       </c>
       <c r="J1425" t="n">
-        <v>-171009771986971</v>
+        <v>-171958508586066</v>
       </c>
       <c r="K1425" t="n">
-        <v> 99999999999999991611392</v>
+        <v>100554785020804425842688</v>
       </c>
     </row>
     <row r="1426">
@@ -50343,7 +50343,7 @@
         <v>1976</v>
       </c>
       <c r="D1426" t="n">
-        <v>10000000000000000000</v>
+        <v>10041608876560332800</v>
       </c>
       <c r="E1426" t="n">
         <v>0.001</v>
@@ -50358,13 +50358,13 @@
         <v>10000</v>
       </c>
       <c r="I1426" t="n">
-        <v>-420000000000000000</v>
+        <v>-421747572815534016</v>
       </c>
       <c r="J1426" t="n">
-        <v>-171009771986971</v>
+        <v>-171721324436292</v>
       </c>
       <c r="K1426" t="n">
-        <v> 99999999999999991611392</v>
+        <v>100416088765603334062080</v>
       </c>
     </row>
     <row r="1427">
@@ -50378,7 +50378,7 @@
         <v>1977</v>
       </c>
       <c r="D1427" t="n">
-        <v>10000000000000000000</v>
+        <v>10027739251040223232</v>
       </c>
       <c r="E1427" t="n">
         <v>0.001</v>
@@ -50393,13 +50393,13 @@
         <v>10000</v>
       </c>
       <c r="I1427" t="n">
-        <v>-420000000000000000</v>
+        <v>-421165048543689408</v>
       </c>
       <c r="J1427" t="n">
-        <v>-171009771986971</v>
+        <v>-171484140286518</v>
       </c>
       <c r="K1427" t="n">
-        <v> 99999999999999991611392</v>
+        <v>100277392510402225504256</v>
       </c>
     </row>
     <row r="1428">
@@ -50413,7 +50413,7 @@
         <v>1978</v>
       </c>
       <c r="D1428" t="n">
-        <v>10000000000000000000</v>
+        <v>10013869625520111616</v>
       </c>
       <c r="E1428" t="n">
         <v>0.001</v>
@@ -50428,13 +50428,13 @@
         <v>10000</v>
       </c>
       <c r="I1428" t="n">
-        <v>-420000000000000000</v>
+        <v>-420582524271844736</v>
       </c>
       <c r="J1428" t="n">
-        <v>-171009771986971</v>
+        <v>-171246956136745</v>
       </c>
       <c r="K1428" t="n">
-        <v> 99999999999999991611392</v>
+        <v>100138696255201116946432</v>
       </c>
     </row>
     <row r="1429">
@@ -50483,7 +50483,7 @@
         <v>1980</v>
       </c>
       <c r="D1430" t="n">
-        <v>10000000000000000000</v>
+        <v>9986130374479888384</v>
       </c>
       <c r="E1430" t="n">
         <v>0.001</v>
@@ -50498,13 +50498,13 @@
         <v>10000</v>
       </c>
       <c r="I1430" t="n">
-        <v>-420000000000000000</v>
+        <v>-419417475728155264</v>
       </c>
       <c r="J1430" t="n">
-        <v>-171009771986971</v>
+        <v>-170772587837197</v>
       </c>
       <c r="K1430" t="n">
-        <v> 99999999999999991611392</v>
+        <v>99861303744798883053568</v>
       </c>
     </row>
     <row r="1431">
@@ -50518,7 +50518,7 @@
         <v>1981</v>
       </c>
       <c r="D1431" t="n">
-        <v>10000000000000000000</v>
+        <v>9972260748959778816</v>
       </c>
       <c r="E1431" t="n">
         <v>0.001</v>
@@ -50533,13 +50533,13 @@
         <v>10000</v>
       </c>
       <c r="I1431" t="n">
-        <v>-420000000000000000</v>
+        <v>-418834951456310784</v>
       </c>
       <c r="J1431" t="n">
-        <v>-171009771986971</v>
+        <v>-170535403687423</v>
       </c>
       <c r="K1431" t="n">
-        <v> 99999999999999991611392</v>
+        <v>99722607489597791272960</v>
       </c>
     </row>
     <row r="1432">
@@ -50553,7 +50553,7 @@
         <v>1982</v>
       </c>
       <c r="D1432" t="n">
-        <v>10000000000000000000</v>
+        <v>9958391123439667200</v>
       </c>
       <c r="E1432" t="n">
         <v>0.001</v>
@@ -50568,13 +50568,13 @@
         <v>10000</v>
       </c>
       <c r="I1432" t="n">
-        <v>-420000000000000000</v>
+        <v>-418252427184466048</v>
       </c>
       <c r="J1432" t="n">
-        <v>-171009771986971</v>
+        <v>-170298219537649</v>
       </c>
       <c r="K1432" t="n">
-        <v> 99999999999999991611392</v>
+        <v>99583911234396665937920</v>
       </c>
     </row>
     <row r="1433">
@@ -50588,7 +50588,7 @@
         <v>1983</v>
       </c>
       <c r="D1433" t="n">
-        <v>10000000000000000000</v>
+        <v>9944521497919555584</v>
       </c>
       <c r="E1433" t="n">
         <v>0.001</v>
@@ -50603,13 +50603,13 @@
         <v>10000</v>
       </c>
       <c r="I1433" t="n">
-        <v>-420000000000000000</v>
+        <v>-417669902912621376</v>
       </c>
       <c r="J1433" t="n">
-        <v>-171009771986971</v>
+        <v>-170061035387875</v>
       </c>
       <c r="K1433" t="n">
-        <v> 99999999999999991611392</v>
+        <v>99445214979195557380096</v>
       </c>
     </row>
     <row r="1434">
@@ -50623,7 +50623,7 @@
         <v>1984</v>
       </c>
       <c r="D1434" t="n">
-        <v>10000000000000000000</v>
+        <v>9930651872399446016</v>
       </c>
       <c r="E1434" t="n">
         <v>0.001</v>
@@ -50638,13 +50638,13 @@
         <v>10000</v>
       </c>
       <c r="I1434" t="n">
-        <v>-420000000000000000</v>
+        <v>-417087378640776704</v>
       </c>
       <c r="J1434" t="n">
-        <v>-171009771986971</v>
+        <v>-169823851238101</v>
       </c>
       <c r="K1434" t="n">
-        <v> 99999999999999991611392</v>
+        <v>99306518723994465599488</v>
       </c>
     </row>
     <row r="1435">
@@ -50658,7 +50658,7 @@
         <v>1985</v>
       </c>
       <c r="D1435" t="n">
-        <v>10000000000000000000</v>
+        <v>9916782246879334400</v>
       </c>
       <c r="E1435" t="n">
         <v>0.001</v>
@@ -50673,13 +50673,13 @@
         <v>10000</v>
       </c>
       <c r="I1435" t="n">
-        <v>-420000000000000000</v>
+        <v>-416504854368932032</v>
       </c>
       <c r="J1435" t="n">
-        <v>-171009771986971</v>
+        <v>-169586667088327</v>
       </c>
       <c r="K1435" t="n">
-        <v> 99999999999999991611392</v>
+        <v>99167822468793340264448</v>
       </c>
     </row>
     <row r="1436">
@@ -50693,7 +50693,7 @@
         <v>1986</v>
       </c>
       <c r="D1436" t="n">
-        <v>10000000000000000000</v>
+        <v>9902912621359222784</v>
       </c>
       <c r="E1436" t="n">
         <v>0.001</v>
@@ -50708,13 +50708,13 @@
         <v>10000</v>
       </c>
       <c r="I1436" t="n">
-        <v>-420000000000000000</v>
+        <v>-415922330097087296</v>
       </c>
       <c r="J1436" t="n">
-        <v>-171009771986971</v>
+        <v>-169349482938553</v>
       </c>
       <c r="K1436" t="n">
-        <v> 99999999999999991611392</v>
+        <v>99029126213592231706624</v>
       </c>
     </row>
     <row r="1437">
@@ -50728,7 +50728,7 @@
         <v>1987</v>
       </c>
       <c r="D1437" t="n">
-        <v>10000000000000000000</v>
+        <v>9889042995839111168</v>
       </c>
       <c r="E1437" t="n">
         <v>0.001</v>
@@ -50743,13 +50743,13 @@
         <v>10000</v>
       </c>
       <c r="I1437" t="n">
-        <v>-420000000000000000</v>
+        <v>-415339805825242688</v>
       </c>
       <c r="J1437" t="n">
-        <v>-171009771986971</v>
+        <v>-169112298788780</v>
       </c>
       <c r="K1437" t="n">
-        <v> 99999999999999991611392</v>
+        <v>98890429958391106371584</v>
       </c>
     </row>
     <row r="1438">
@@ -50763,7 +50763,7 @@
         <v>1988</v>
       </c>
       <c r="D1438" t="n">
-        <v>10000000000000000000</v>
+        <v>9875173370319001600</v>
       </c>
       <c r="E1438" t="n">
         <v>0.001</v>
@@ -50778,13 +50778,13 @@
         <v>10000</v>
       </c>
       <c r="I1438" t="n">
-        <v>-420000000000000000</v>
+        <v>-414757281553398080</v>
       </c>
       <c r="J1438" t="n">
-        <v>-171009771986971</v>
+        <v>-168875114639006</v>
       </c>
       <c r="K1438" t="n">
-        <v> 99999999999999991611392</v>
+        <v>98751733703190014590976</v>
       </c>
     </row>
     <row r="1439">
@@ -50798,7 +50798,7 @@
         <v>1989</v>
       </c>
       <c r="D1439" t="n">
-        <v>10000000000000000000</v>
+        <v>9861303744798892032</v>
       </c>
       <c r="E1439" t="n">
         <v>0.001</v>
@@ -50813,13 +50813,13 @@
         <v>10000</v>
       </c>
       <c r="I1439" t="n">
-        <v>-420000000000000000</v>
+        <v>-414174757281553472</v>
       </c>
       <c r="J1439" t="n">
-        <v>-171009771986971</v>
+        <v>-168637930489232</v>
       </c>
       <c r="K1439" t="n">
-        <v> 99999999999999991611392</v>
+        <v>98613037447988922810368</v>
       </c>
     </row>
     <row r="1440">
@@ -50833,7 +50833,7 @@
         <v>1990</v>
       </c>
       <c r="D1440" t="n">
-        <v>10000000000000000000</v>
+        <v>9847434119278780416</v>
       </c>
       <c r="E1440" t="n">
         <v>0.001</v>
@@ -50848,13 +50848,13 @@
         <v>10000</v>
       </c>
       <c r="I1440" t="n">
-        <v>-420000000000000000</v>
+        <v>-413592233009708736</v>
       </c>
       <c r="J1440" t="n">
-        <v>-171009771986971</v>
+        <v>-168400746339458</v>
       </c>
       <c r="K1440" t="n">
-        <v> 99999999999999991611392</v>
+        <v>98474341192787797475328</v>
       </c>
     </row>
     <row r="1441">
@@ -50868,7 +50868,7 @@
         <v>1991</v>
       </c>
       <c r="D1441" t="n">
-        <v>10000000000000000000</v>
+        <v>9833564493758668800</v>
       </c>
       <c r="E1441" t="n">
         <v>0.001</v>
@@ -50883,13 +50883,13 @@
         <v>10000</v>
       </c>
       <c r="I1441" t="n">
-        <v>-420000000000000000</v>
+        <v>-413009708737864128</v>
       </c>
       <c r="J1441" t="n">
-        <v>-171009771986971</v>
+        <v>-168163562189684</v>
       </c>
       <c r="K1441" t="n">
-        <v> 99999999999999991611392</v>
+        <v>98335644937586688917504</v>
       </c>
     </row>
     <row r="1442">
@@ -50903,7 +50903,7 @@
         <v>1992</v>
       </c>
       <c r="D1442" t="n">
-        <v>10000000000000000000</v>
+        <v>9819694868238557184</v>
       </c>
       <c r="E1442" t="n">
         <v>0.001</v>
@@ -50918,13 +50918,13 @@
         <v>10000</v>
       </c>
       <c r="I1442" t="n">
-        <v>-420000000000000000</v>
+        <v>-412427184466019456</v>
       </c>
       <c r="J1442" t="n">
-        <v>-171009771986971</v>
+        <v>-167926378039910</v>
       </c>
       <c r="K1442" t="n">
-        <v> 99999999999999991611392</v>
+        <v>98196948682385563582464</v>
       </c>
     </row>
     <row r="1443">
@@ -50938,7 +50938,7 @@
         <v>1993</v>
       </c>
       <c r="D1443" t="n">
-        <v>10000000000000000000</v>
+        <v>9805825242718447616</v>
       </c>
       <c r="E1443" t="n">
         <v>0.001</v>
@@ -50953,13 +50953,13 @@
         <v>10000</v>
       </c>
       <c r="I1443" t="n">
-        <v>-420000000000000000</v>
+        <v>-411844660194174848</v>
       </c>
       <c r="J1443" t="n">
-        <v>-171009771986971</v>
+        <v>-167689193890136</v>
       </c>
       <c r="K1443" t="n">
-        <v> 99999999999999991611392</v>
+        <v>98058252427184471801856</v>
       </c>
     </row>
     <row r="1444">
@@ -50973,7 +50973,7 @@
         <v>1994</v>
       </c>
       <c r="D1444" t="n">
-        <v>10000000000000000000</v>
+        <v>9791955617198336000</v>
       </c>
       <c r="E1444" t="n">
         <v>0.001</v>
@@ -50988,13 +50988,13 @@
         <v>10000</v>
       </c>
       <c r="I1444" t="n">
-        <v>-420000000000000000</v>
+        <v>-411262135922330112</v>
       </c>
       <c r="J1444" t="n">
-        <v>-171009771986971</v>
+        <v>-167452009740362</v>
       </c>
       <c r="K1444" t="n">
-        <v> 99999999999999991611392</v>
+        <v>97919556171983363244032</v>
       </c>
     </row>
     <row r="1445">
@@ -51008,7 +51008,7 @@
         <v>1995</v>
       </c>
       <c r="D1445" t="n">
-        <v>10000000000000000000</v>
+        <v>9778085991678224384</v>
       </c>
       <c r="E1445" t="n">
         <v>0.001</v>
@@ -51023,13 +51023,13 @@
         <v>10000</v>
       </c>
       <c r="I1445" t="n">
-        <v>-420000000000000000</v>
+        <v>-410679611650485376</v>
       </c>
       <c r="J1445" t="n">
-        <v>-171009771986971</v>
+        <v>-167214825590589</v>
       </c>
       <c r="K1445" t="n">
-        <v> 99999999999999991611392</v>
+        <v>97780859916782237908992</v>
       </c>
     </row>
     <row r="1446">
@@ -51043,7 +51043,7 @@
         <v>1996</v>
       </c>
       <c r="D1446" t="n">
-        <v>10000000000000000000</v>
+        <v>9764216366158112768</v>
       </c>
       <c r="E1446" t="n">
         <v>0.001</v>
@@ -51058,13 +51058,13 @@
         <v>10000</v>
       </c>
       <c r="I1446" t="n">
-        <v>-420000000000000000</v>
+        <v>-410097087378640704</v>
       </c>
       <c r="J1446" t="n">
-        <v>-171009771986971</v>
+        <v>-166977641440815</v>
       </c>
       <c r="K1446" t="n">
-        <v> 99999999999999991611392</v>
+        <v>97642163661581129351168</v>
       </c>
     </row>
     <row r="1447">
@@ -51078,7 +51078,7 @@
         <v>1997</v>
       </c>
       <c r="D1447" t="n">
-        <v>10000000000000000000</v>
+        <v>9750346740638003200</v>
       </c>
       <c r="E1447" t="n">
         <v>0.001</v>
@@ -51093,13 +51093,13 @@
         <v>10000</v>
       </c>
       <c r="I1447" t="n">
-        <v>-420000000000000000</v>
+        <v>-409514563106796160</v>
       </c>
       <c r="J1447" t="n">
-        <v>-171009771986971</v>
+        <v>-166740457291041</v>
       </c>
       <c r="K1447" t="n">
-        <v> 99999999999999991611392</v>
+        <v>97503467406380037570560</v>
       </c>
     </row>
     <row r="1448">
@@ -51113,7 +51113,7 @@
         <v>1998</v>
       </c>
       <c r="D1448" t="n">
-        <v>10000000000000000000</v>
+        <v>9736477115117891584</v>
       </c>
       <c r="E1448" t="n">
         <v>0.001</v>
@@ -51128,13 +51128,13 @@
         <v>10000</v>
       </c>
       <c r="I1448" t="n">
-        <v>-420000000000000000</v>
+        <v>-408932038834951488</v>
       </c>
       <c r="J1448" t="n">
-        <v>-171009771986971</v>
+        <v>-166503273141267</v>
       </c>
       <c r="K1448" t="n">
-        <v> 99999999999999991611392</v>
+        <v>97364771151178912235520</v>
       </c>
     </row>
     <row r="1449">
@@ -51148,7 +51148,7 @@
         <v>1999</v>
       </c>
       <c r="D1449" t="n">
-        <v>10000000000000000000</v>
+        <v>9722607489597779968</v>
       </c>
       <c r="E1449" t="n">
         <v>0.001</v>
@@ -51163,13 +51163,13 @@
         <v>10000</v>
       </c>
       <c r="I1449" t="n">
-        <v>-420000000000000000</v>
+        <v>-408349514563106752</v>
       </c>
       <c r="J1449" t="n">
-        <v>-171009771986971</v>
+        <v>-166266088991493</v>
       </c>
       <c r="K1449" t="n">
-        <v> 99999999999999991611392</v>
+        <v>97226074895977803677696</v>
       </c>
     </row>
     <row r="1450">
@@ -51183,7 +51183,7 @@
         <v>2000</v>
       </c>
       <c r="D1450" t="n">
-        <v>10000000000000000000</v>
+        <v>9708737864077670400</v>
       </c>
       <c r="E1450" t="n">
         <v>0.001</v>
@@ -51198,13 +51198,13 @@
         <v>10000</v>
       </c>
       <c r="I1450" t="n">
-        <v>-420000000000000000</v>
+        <v>-407766990291262144</v>
       </c>
       <c r="J1450" t="n">
-        <v>-171009771986971</v>
+        <v>-166028904841719</v>
       </c>
       <c r="K1450" t="n">
-        <v> 99999999999999991611392</v>
+        <v>97087378640776711897088</v>
       </c>
     </row>
     <row r="1451">
@@ -51218,7 +51218,7 @@
         <v>2001</v>
       </c>
       <c r="D1451" t="n">
-        <v>10000000000000000000</v>
+        <v>9694868238557558784</v>
       </c>
       <c r="E1451" t="n">
         <v>0.001</v>
@@ -51233,13 +51233,13 @@
         <v>10000</v>
       </c>
       <c r="I1451" t="n">
-        <v>-420000000000000000</v>
+        <v>-407184466019417408</v>
       </c>
       <c r="J1451" t="n">
-        <v>-171009771986971</v>
+        <v>-165791720691945</v>
       </c>
       <c r="K1451" t="n">
-        <v> 99999999999999991611392</v>
+        <v>96948682385575586562048</v>
       </c>
     </row>
     <row r="1452">
@@ -51253,7 +51253,7 @@
         <v>2002</v>
       </c>
       <c r="D1452" t="n">
-        <v>10000000000000000000</v>
+        <v>9680998613037447168</v>
       </c>
       <c r="E1452" t="n">
         <v>0.001</v>
@@ -51268,13 +51268,13 @@
         <v>10000</v>
       </c>
       <c r="I1452" t="n">
-        <v>-420000000000000000</v>
+        <v>-406601941747572800</v>
       </c>
       <c r="J1452" t="n">
-        <v>-171009771986971</v>
+        <v>-165554536542171</v>
       </c>
       <c r="K1452" t="n">
-        <v> 99999999999999991611392</v>
+        <v>96809986130374478004224</v>
       </c>
     </row>
     <row r="1453">
@@ -51288,7 +51288,7 @@
         <v>2003</v>
       </c>
       <c r="D1453" t="n">
-        <v>10000000000000000000</v>
+        <v>9667128987517335552</v>
       </c>
       <c r="E1453" t="n">
         <v>0.001</v>
@@ -51303,13 +51303,13 @@
         <v>10000</v>
       </c>
       <c r="I1453" t="n">
-        <v>-420000000000000000</v>
+        <v>-406019417475728128</v>
       </c>
       <c r="J1453" t="n">
-        <v>-171009771986971</v>
+        <v>-165317352392397</v>
       </c>
       <c r="K1453" t="n">
-        <v> 99999999999999991611392</v>
+        <v>96671289875173352669184</v>
       </c>
     </row>
     <row r="1454">
@@ -51323,7 +51323,7 @@
         <v>2004</v>
       </c>
       <c r="D1454" t="n">
-        <v>10000000000000000000</v>
+        <v>9653259361997225984</v>
       </c>
       <c r="E1454" t="n">
         <v>0.001</v>
@@ -51338,13 +51338,13 @@
         <v>10000</v>
       </c>
       <c r="I1454" t="n">
-        <v>-420000000000000000</v>
+        <v>-405436893203883520</v>
       </c>
       <c r="J1454" t="n">
-        <v>-171009771986971</v>
+        <v>-165080168242624</v>
       </c>
       <c r="K1454" t="n">
-        <v> 99999999999999991611392</v>
+        <v>96532593619972260888576</v>
       </c>
     </row>
     <row r="1455">
@@ -51358,7 +51358,7 @@
         <v>2005</v>
       </c>
       <c r="D1455" t="n">
-        <v>10000000000000000000</v>
+        <v>9639389736477116416</v>
       </c>
       <c r="E1455" t="n">
         <v>0.001</v>
@@ -51373,13 +51373,13 @@
         <v>10000</v>
       </c>
       <c r="I1455" t="n">
-        <v>-420000000000000000</v>
+        <v>-404854368932038848</v>
       </c>
       <c r="J1455" t="n">
-        <v>-171009771986971</v>
+        <v>-164842984092850</v>
       </c>
       <c r="K1455" t="n">
-        <v> 99999999999999991611392</v>
+        <v>96393897364771169107968</v>
       </c>
     </row>
     <row r="1456">
@@ -51393,7 +51393,7 @@
         <v>2006</v>
       </c>
       <c r="D1456" t="n">
-        <v>10000000000000000000</v>
+        <v>9625520110957004800</v>
       </c>
       <c r="E1456" t="n">
         <v>0.001</v>
@@ -51408,13 +51408,13 @@
         <v>10000</v>
       </c>
       <c r="I1456" t="n">
-        <v>-420000000000000000</v>
+        <v>-404271844660194240</v>
       </c>
       <c r="J1456" t="n">
-        <v>-171009771986971</v>
+        <v>-164605799943076</v>
       </c>
       <c r="K1456" t="n">
-        <v> 99999999999999991611392</v>
+        <v>96255201109570043772928</v>
       </c>
     </row>
     <row r="1457">
@@ -51428,7 +51428,7 @@
         <v>2007</v>
       </c>
       <c r="D1457" t="n">
-        <v>10000000000000000000</v>
+        <v>9611650485436893184</v>
       </c>
       <c r="E1457" t="n">
         <v>0.001</v>
@@ -51443,13 +51443,13 @@
         <v>10000</v>
       </c>
       <c r="I1457" t="n">
-        <v>-420000000000000000</v>
+        <v>-403689320388349568</v>
       </c>
       <c r="J1457" t="n">
-        <v>-171009771986971</v>
+        <v>-164368615793302</v>
       </c>
       <c r="K1457" t="n">
-        <v> 99999999999999991611392</v>
+        <v>96116504854368935215104</v>
       </c>
     </row>
     <row r="1458">
@@ -51463,7 +51463,7 @@
         <v>2008</v>
       </c>
       <c r="D1458" t="n">
-        <v>10000000000000000000</v>
+        <v>9597780859916781568</v>
       </c>
       <c r="E1458" t="n">
         <v>0.001</v>
@@ -51478,13 +51478,13 @@
         <v>10000</v>
       </c>
       <c r="I1458" t="n">
-        <v>-420000000000000000</v>
+        <v>-403106796116504832</v>
       </c>
       <c r="J1458" t="n">
-        <v>-171009771986971</v>
+        <v>-164131431643528</v>
       </c>
       <c r="K1458" t="n">
-        <v> 99999999999999991611392</v>
+        <v>95977808599167809880064</v>
       </c>
     </row>
     <row r="1459">
@@ -51498,7 +51498,7 @@
         <v>2009</v>
       </c>
       <c r="D1459" t="n">
-        <v>10000000000000000000</v>
+        <v>9583911234396672000</v>
       </c>
       <c r="E1459" t="n">
         <v>0.001</v>
@@ -51513,13 +51513,13 @@
         <v>10000</v>
       </c>
       <c r="I1459" t="n">
-        <v>-420000000000000000</v>
+        <v>-402524271844660224</v>
       </c>
       <c r="J1459" t="n">
-        <v>-171009771986971</v>
+        <v>-163894247493754</v>
       </c>
       <c r="K1459" t="n">
-        <v> 99999999999999991611392</v>
+        <v>95839112343966718099456</v>
       </c>
     </row>
     <row r="1460">
@@ -51533,7 +51533,7 @@
         <v>2010</v>
       </c>
       <c r="D1460" t="n">
-        <v>10000000000000000000</v>
+        <v>9570041608876560384</v>
       </c>
       <c r="E1460" t="n">
         <v>0.001</v>
@@ -51548,13 +51548,13 @@
         <v>10000</v>
       </c>
       <c r="I1460" t="n">
-        <v>-420000000000000000</v>
+        <v>-401941747572815488</v>
       </c>
       <c r="J1460" t="n">
-        <v>-171009771986971</v>
+        <v>-163657063343980</v>
       </c>
       <c r="K1460" t="n">
-        <v> 99999999999999991611392</v>
+        <v>95700416088765609541632</v>
       </c>
     </row>
     <row r="1461">
@@ -51568,7 +51568,7 @@
         <v>2011</v>
       </c>
       <c r="D1461" t="n">
-        <v>10000000000000000000</v>
+        <v>9556171983356448768</v>
       </c>
       <c r="E1461" t="n">
         <v>0.001</v>
@@ -51583,13 +51583,13 @@
         <v>10000</v>
       </c>
       <c r="I1461" t="n">
-        <v>-420000000000000000</v>
+        <v>-401359223300970816</v>
       </c>
       <c r="J1461" t="n">
-        <v>-171009771986971</v>
+        <v>-163419879194206</v>
       </c>
       <c r="K1461" t="n">
-        <v> 99999999999999991611392</v>
+        <v>95561719833564484206592</v>
       </c>
     </row>
     <row r="1462">
@@ -51603,7 +51603,7 @@
         <v>2012</v>
       </c>
       <c r="D1462" t="n">
-        <v>10000000000000000000</v>
+        <v>9542302357836339200</v>
       </c>
       <c r="E1462" t="n">
         <v>0.001</v>
@@ -51618,13 +51618,13 @@
         <v>10000</v>
       </c>
       <c r="I1462" t="n">
-        <v>-420000000000000000</v>
+        <v>-400776699029126272</v>
       </c>
       <c r="J1462" t="n">
-        <v>-171009771986971</v>
+        <v>-163182695044432</v>
       </c>
       <c r="K1462" t="n">
-        <v> 99999999999999991611392</v>
+        <v>95423023578363392425984</v>
       </c>
     </row>
     <row r="1463">
@@ -51638,7 +51638,7 @@
         <v>2013</v>
       </c>
       <c r="D1463" t="n">
-        <v>10000000000000000000</v>
+        <v>9528432732316227584</v>
       </c>
       <c r="E1463" t="n">
         <v>0.001</v>
@@ -51653,13 +51653,13 @@
         <v>10000</v>
       </c>
       <c r="I1463" t="n">
-        <v>-420000000000000000</v>
+        <v>-400194174757281600</v>
       </c>
       <c r="J1463" t="n">
-        <v>-171009771986971</v>
+        <v>-162945510894659</v>
       </c>
       <c r="K1463" t="n">
-        <v> 99999999999999991611392</v>
+        <v>95284327323162283868160</v>
       </c>
     </row>
     <row r="1464">
@@ -51673,7 +51673,7 @@
         <v>2014</v>
       </c>
       <c r="D1464" t="n">
-        <v>10000000000000000000</v>
+        <v>9514563106796115968</v>
       </c>
       <c r="E1464" t="n">
         <v>0.001</v>
@@ -51688,13 +51688,13 @@
         <v>10000</v>
       </c>
       <c r="I1464" t="n">
-        <v>-420000000000000000</v>
+        <v>-399611650485436864</v>
       </c>
       <c r="J1464" t="n">
-        <v>-171009771986971</v>
+        <v>-162708326744885</v>
       </c>
       <c r="K1464" t="n">
-        <v> 99999999999999991611392</v>
+        <v>95145631067961158533120</v>
       </c>
     </row>
     <row r="1465">
@@ -51708,7 +51708,7 @@
         <v>2015</v>
       </c>
       <c r="D1465" t="n">
-        <v>10000000000000000000</v>
+        <v>9500693481276004352</v>
       </c>
       <c r="E1465" t="n">
         <v>0.001</v>
@@ -51723,13 +51723,13 @@
         <v>10000</v>
       </c>
       <c r="I1465" t="n">
-        <v>-420000000000000000</v>
+        <v>-399029126213592192</v>
       </c>
       <c r="J1465" t="n">
-        <v>-171009771986971</v>
+        <v>-162471142595111</v>
       </c>
       <c r="K1465" t="n">
-        <v> 99999999999999991611392</v>
+        <v>95006934812760049975296</v>
       </c>
     </row>
     <row r="1466">
@@ -51743,7 +51743,7 @@
         <v>2016</v>
       </c>
       <c r="D1466" t="n">
-        <v>10000000000000000000</v>
+        <v>9486823855755894784</v>
       </c>
       <c r="E1466" t="n">
         <v>0.001</v>
@@ -51758,13 +51758,13 @@
         <v>10000</v>
       </c>
       <c r="I1466" t="n">
-        <v>-420000000000000000</v>
+        <v>-398446601941747520</v>
       </c>
       <c r="J1466" t="n">
-        <v>-171009771986971</v>
+        <v>-162233958445337</v>
       </c>
       <c r="K1466" t="n">
-        <v> 99999999999999991611392</v>
+        <v>94868238557558941417472</v>
       </c>
     </row>
     <row r="1467">
@@ -51778,7 +51778,7 @@
         <v>2017</v>
       </c>
       <c r="D1467" t="n">
-        <v>10000000000000000000</v>
+        <v>9472954230235785216</v>
       </c>
       <c r="E1467" t="n">
         <v>0.001</v>
@@ -51793,13 +51793,13 @@
         <v>10000</v>
       </c>
       <c r="I1467" t="n">
-        <v>-420000000000000000</v>
+        <v>-397864077669903040</v>
       </c>
       <c r="J1467" t="n">
-        <v>-171009771986971</v>
+        <v>-161996774295563</v>
       </c>
       <c r="K1467" t="n">
-        <v> 99999999999999991611392</v>
+        <v>94729542302357849636864</v>
       </c>
     </row>
     <row r="1468">
@@ -51813,7 +51813,7 @@
         <v>2018</v>
       </c>
       <c r="D1468" t="n">
-        <v>10000000000000000000</v>
+        <v>9459084604715673600</v>
       </c>
       <c r="E1468" t="n">
         <v>0.001</v>
@@ -51828,13 +51828,13 @@
         <v>10000</v>
       </c>
       <c r="I1468" t="n">
-        <v>-420000000000000000</v>
+        <v>-397281553398058304</v>
       </c>
       <c r="J1468" t="n">
-        <v>-171009771986971</v>
+        <v>-161759590145789</v>
       </c>
       <c r="K1468" t="n">
-        <v> 99999999999999991611392</v>
+        <v>94590846047156741079040</v>
       </c>
     </row>
     <row r="1469">
@@ -51848,7 +51848,7 @@
         <v>2019</v>
       </c>
       <c r="D1469" t="n">
-        <v>10000000000000000000</v>
+        <v>9445214979195561984</v>
       </c>
       <c r="E1469" t="n">
         <v>0.001</v>
@@ -51863,13 +51863,13 @@
         <v>10000</v>
       </c>
       <c r="I1469" t="n">
-        <v>-420000000000000000</v>
+        <v>-396699029126213632</v>
       </c>
       <c r="J1469" t="n">
-        <v>-171009771986971</v>
+        <v>-161522405996015</v>
       </c>
       <c r="K1469" t="n">
-        <v> 99999999999999991611392</v>
+        <v>94452149791955615744000</v>
       </c>
     </row>
     <row r="1470">
@@ -51883,7 +51883,7 @@
         <v>2020</v>
       </c>
       <c r="D1470" t="n">
-        <v>10000000000000000000</v>
+        <v>9431345353675450368</v>
       </c>
       <c r="E1470" t="n">
         <v>0.001</v>
@@ -51898,13 +51898,13 @@
         <v>10000</v>
       </c>
       <c r="I1470" t="n">
-        <v>-420000000000000000</v>
+        <v>-396116504854368896</v>
       </c>
       <c r="J1470" t="n">
-        <v>-171009771986971</v>
+        <v>-161285221846241</v>
       </c>
       <c r="K1470" t="n">
-        <v> 99999999999999991611392</v>
+        <v>94313453536754507186176</v>
       </c>
     </row>
     <row r="1471">
@@ -51918,7 +51918,7 @@
         <v>2021</v>
       </c>
       <c r="D1471" t="n">
-        <v>10000000000000000000</v>
+        <v>9417475728155340800</v>
       </c>
       <c r="E1471" t="n">
         <v>0.001</v>
@@ -51933,13 +51933,13 @@
         <v>10000</v>
       </c>
       <c r="I1471" t="n">
-        <v>-420000000000000000</v>
+        <v>-395533980582524288</v>
       </c>
       <c r="J1471" t="n">
-        <v>-171009771986971</v>
+        <v>-161048037696468</v>
       </c>
       <c r="K1471" t="n">
-        <v> 99999999999999991611392</v>
+        <v>94174757281553415405568</v>
       </c>
     </row>
     <row r="1472">
@@ -51953,7 +51953,7 @@
         <v>2022</v>
       </c>
       <c r="D1472" t="n">
-        <v>10000000000000000000</v>
+        <v>9403606102635229184</v>
       </c>
       <c r="E1472" t="n">
         <v>0.001</v>
@@ -51968,13 +51968,13 @@
         <v>10000</v>
       </c>
       <c r="I1472" t="n">
-        <v>-420000000000000000</v>
+        <v>-394951456310679680</v>
       </c>
       <c r="J1472" t="n">
-        <v>-171009771986971</v>
+        <v>-160810853546694</v>
       </c>
       <c r="K1472" t="n">
-        <v> 99999999999999991611392</v>
+        <v>94036061026352290070528</v>
       </c>
     </row>
     <row r="1473">
@@ -51988,7 +51988,7 @@
         <v>2023</v>
       </c>
       <c r="D1473" t="n">
-        <v>10000000000000000000</v>
+        <v>9389736477115117568</v>
       </c>
       <c r="E1473" t="n">
         <v>0.001</v>
@@ -52003,13 +52003,13 @@
         <v>10000</v>
       </c>
       <c r="I1473" t="n">
-        <v>-420000000000000000</v>
+        <v>-394368932038834944</v>
       </c>
       <c r="J1473" t="n">
-        <v>-171009771986971</v>
+        <v>-160573669396920</v>
       </c>
       <c r="K1473" t="n">
-        <v> 99999999999999991611392</v>
+        <v>93897364771151181512704</v>
       </c>
     </row>
     <row r="1474">
@@ -52023,7 +52023,7 @@
         <v>2024</v>
       </c>
       <c r="D1474" t="n">
-        <v>10000000000000000000</v>
+        <v>9375866851595005952</v>
       </c>
       <c r="E1474" t="n">
         <v>0.001</v>
@@ -52038,13 +52038,13 @@
         <v>10000</v>
       </c>
       <c r="I1474" t="n">
-        <v>-420000000000000000</v>
+        <v>-393786407766990272</v>
       </c>
       <c r="J1474" t="n">
-        <v>-171009771986971</v>
+        <v>-160336485247146</v>
       </c>
       <c r="K1474" t="n">
-        <v> 99999999999999991611392</v>
+        <v>93758668515950056177664</v>
       </c>
     </row>
     <row r="1475">
@@ -52058,7 +52058,7 @@
         <v>2025</v>
       </c>
       <c r="D1475" t="n">
-        <v>10000000000000000000</v>
+        <v>9361997226074896384</v>
       </c>
       <c r="E1475" t="n">
         <v>0.001</v>
@@ -52073,13 +52073,13 @@
         <v>10000</v>
       </c>
       <c r="I1475" t="n">
-        <v>-420000000000000000</v>
+        <v>-393203883495145600</v>
       </c>
       <c r="J1475" t="n">
-        <v>-171009771986971</v>
+        <v>-160099301097372</v>
       </c>
       <c r="K1475" t="n">
-        <v> 99999999999999991611392</v>
+        <v>93619972260748964397056</v>
       </c>
     </row>
   </sheetData>
